--- a/inst/exdata/exam_questions.xlsx
+++ b/inst/exdata/exam_questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umatter/Dropbox/Projects/mc_exams/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umatter/Dropbox/R_projects/examr/inst/exdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
   <si>
     <t>type</t>
   </si>
@@ -78,6 +78,12 @@
   </si>
   <si>
     <t>1+1=3</t>
+  </si>
+  <si>
+    <t>topic</t>
+  </si>
+  <si>
+    <t>week1-2</t>
   </si>
 </sst>
 </file>
@@ -392,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -404,7 +410,7 @@
     <col min="3" max="3" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +429,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -443,8 +452,11 @@
       <c r="F2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -460,8 +472,11 @@
       <c r="E3">
         <v>2018</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -474,8 +489,11 @@
       <c r="E4">
         <v>2018</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -488,8 +506,11 @@
       <c r="E5">
         <v>2018</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -505,8 +526,11 @@
       <c r="E6">
         <v>2018</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -524,6 +548,9 @@
       </c>
       <c r="F7" t="s">
         <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/inst/exdata/exam_questions.xlsx
+++ b/inst/exdata/exam_questions.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="19">
   <si>
     <t>type</t>
   </si>
@@ -398,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,6 +506,9 @@
       <c r="E5">
         <v>2018</v>
       </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
       <c r="G5" t="s">
         <v>18</v>
       </c>
@@ -546,10 +549,173 @@
       <c r="E7">
         <v>2018</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>2018</v>
+      </c>
+      <c r="F8" t="s">
         <v>8</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2018</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>2018</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>2018</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>2018</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13">
+        <v>2018</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>2018</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15">
+        <v>2018</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
         <v>18</v>
       </c>
     </row>

--- a/inst/exdata/exam_questions.xlsx
+++ b/inst/exdata/exam_questions.xlsx
@@ -50,9 +50,6 @@
     <t>tf</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>mock</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>week1-2</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -430,18 +430,18 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -450,30 +450,30 @@
         <v>2018</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
       <c r="E3">
         <v>2018</v>
       </c>
       <c r="G3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -481,16 +481,16 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>2018</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -498,50 +498,50 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5">
+        <v>2018</v>
+      </c>
+      <c r="F5" t="s">
         <v>7</v>
       </c>
-      <c r="E5">
-        <v>2018</v>
-      </c>
-      <c r="F5" t="s">
-        <v>8</v>
-      </c>
       <c r="G5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
       <c r="E6">
         <v>2018</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
         <v>11</v>
-      </c>
-      <c r="C7" t="s">
-        <v>12</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -550,41 +550,41 @@
         <v>2018</v>
       </c>
       <c r="G7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
       <c r="E8">
         <v>2018</v>
       </c>
       <c r="F8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -593,30 +593,30 @@
         <v>2018</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>14</v>
       </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
       <c r="E10">
         <v>2018</v>
       </c>
       <c r="G10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -624,16 +624,16 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>2018</v>
       </c>
       <c r="G11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -641,50 +641,50 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>2018</v>
+      </c>
+      <c r="F12" t="s">
         <v>7</v>
       </c>
-      <c r="E12">
-        <v>2018</v>
-      </c>
-      <c r="F12" t="s">
-        <v>8</v>
-      </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
       <c r="E13">
         <v>2018</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" t="s">
         <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -693,30 +693,30 @@
         <v>2018</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" t="s">
         <v>13</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
       <c r="E15">
         <v>2018</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
